--- a/AppTutorias/Content/Horaios_Docentes.xlsx
+++ b/AppTutorias/Content/Horaios_Docentes.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="16">
   <si>
     <t>CodMateria</t>
   </si>
@@ -41,19 +41,37 @@
     <t>Periodo</t>
   </si>
   <si>
+    <t>Paralelo</t>
+  </si>
+  <si>
+    <t>ACI520</t>
+  </si>
+  <si>
+    <t>ACI220</t>
+  </si>
+  <si>
+    <t>0502395270</t>
+  </si>
+  <si>
+    <t>PEP2018</t>
+  </si>
+  <si>
+    <t>PEP2020</t>
+  </si>
+  <si>
+    <t>PEP2021</t>
+  </si>
+  <si>
     <t>FIS100</t>
   </si>
   <si>
-    <t>PEP2018</t>
-  </si>
-  <si>
-    <t>MAT330</t>
-  </si>
-  <si>
-    <t>Paralelo</t>
-  </si>
-  <si>
-    <t>ISW111</t>
+    <t>EMP</t>
+  </si>
+  <si>
+    <t>MAT110</t>
+  </si>
+  <si>
+    <t>BDD</t>
   </si>
 </sst>
 </file>
@@ -103,11 +121,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -392,7 +413,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -418,21 +439,21 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1">
-        <v>1713980074</v>
+        <v>1500829427</v>
       </c>
       <c r="C2">
         <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E2">
         <v>503</v>
@@ -443,36 +464,36 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B3" s="1">
-        <v>1713980074</v>
+        <v>1500829427</v>
       </c>
       <c r="C3">
         <v>102</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E3">
         <v>200</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <v>1874589658</v>
+        <v>1711715803</v>
       </c>
       <c r="C4">
         <v>403</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E4">
         <v>456</v>
@@ -483,59 +504,59 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1874589658</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C5">
-        <v>404</v>
+        <v>506</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E5">
-        <v>456</v>
+        <v>421</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1">
-        <v>1713980074</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C6">
-        <v>301</v>
+        <v>507</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6">
-        <v>500</v>
+        <v>602</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1">
-        <v>1713980074</v>
+        <v>14</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="C7">
         <v>202</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E7">
-        <v>505</v>
+        <v>603</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -543,43 +564,26 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
-        <v>1720645223</v>
+        <v>1711715803</v>
       </c>
       <c r="C8">
-        <v>101</v>
+        <v>2013</v>
       </c>
       <c r="D8" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E8">
-        <v>504</v>
+        <v>604</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1874589658</v>
-      </c>
-      <c r="C9">
-        <v>404</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9">
-        <v>430</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
+      <c r="B9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1"/>
